--- a/biology/Zoologie/Ammophila_(insecte)/Ammophila_(insecte).xlsx
+++ b/biology/Zoologie/Ammophila_(insecte)/Ammophila_(insecte).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ammophila (les ammophiles, du grec « ammos », sable et « phileo », aimer, littéralement « qui aime le sable ») est un genre d'insectes ressemblant à des guêpes.
@@ -512,9 +524,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elles sont parmi les rares hyménoptères utilisant des outils. Certaines espèces sont notamment connues pour leur particularité à utiliser un caillou tenu entre les mandibules pour damer le sol afin de fermer leur terrier[1]; d'autres espèces effectuent cette opération à l'aide de leur tête[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont parmi les rares hyménoptères utilisant des outils. Certaines espèces sont notamment connues pour leur particularité à utiliser un caillou tenu entre les mandibules pour damer le sol afin de fermer leur terrier; d'autres espèces effectuent cette opération à l'aide de leur tête.
 </t>
         </is>
       </c>
@@ -543,11 +557,48 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après ITIS, ce genre contient plus de deux cents espèces.
-En Europe
-Ammophila albotomentosa (Morice, 1900)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ammophila_(insecte)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ammophila_(insecte)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En Europe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ammophila albotomentosa (Morice, 1900)
 Ammophila campestris (Latreille, 1809)
 Ammophila gracillima (Taschenberg, 1869)
 Ammophila heydeni (Dahlbom, 1845)
@@ -561,8 +612,43 @@
 Ammophila sabulosa (Linnaeus, 1758)
 Ammophila sareptana (Kohl, 1884)
 Ammophila striata (Mocsáry, 1878)
-Ammophila terminata (F. Smith, 1856)
-Liste globale
+Ammophila terminata (F. Smith, 1856)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ammophila_(insecte)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ammophila_(insecte)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste globale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ammophila aberti (Haldeman, 1852)
 Ammophila acuta (Fernald, 1934)
 Ammophila adelpha (Kohl, 1901)
@@ -768,31 +854,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Ammophila_(insecte)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ammophila_(insecte)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Espèce reclassée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Podalonia hirsuta, décrite initialement comme Ammophila hirsuta (Scopoli, 1763)</t>
         </is>
